--- a/Master.xlsx
+++ b/Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Max" sheetId="8" r:id="rId1"/>
@@ -17636,9 +17636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C238" sqref="C238"/>
+    <sheetView zoomScale="84" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35389,15 +35389,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T245"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -35408,10 +35408,10 @@
         <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
@@ -35470,10 +35470,10 @@
         <v>2.6882978720000001</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -35532,10 +35532,10 @@
         <v>2.8400709220000002</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -35594,10 +35594,10 @@
         <v>2.5648936170000001</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>7</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -35656,10 +35656,10 @@
         <v>2.4556737590000002</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>7</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -35718,10 +35718,10 @@
         <v>2.3191489359999999</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -35780,10 +35780,10 @@
         <v>1.961702128</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>7</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -35842,10 +35842,10 @@
         <v>1.7797872340000001</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>7</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>2.1734042549999999</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>7</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>2.2244680849999998</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -36028,10 +36028,10 @@
         <v>2.2861702130000001</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>7</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -36090,10 +36090,10 @@
         <v>2.3212765960000001</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -36152,10 +36152,10 @@
         <v>3.197163121</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>7</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -36214,10 +36214,10 @@
         <v>2.2187943259999998</v>
       </c>
       <c r="C14">
+        <v>4.7312639999999998E-3</v>
+      </c>
+      <c r="D14">
         <v>7</v>
-      </c>
-      <c r="D14">
-        <v>4.7312639999999998E-3</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>1.982269504</v>
       </c>
       <c r="C15">
+        <v>0.208175625</v>
+      </c>
+      <c r="D15">
         <v>7</v>
-      </c>
-      <c r="D15">
-        <v>0.208175625</v>
       </c>
       <c r="E15">
         <v>2.0781379879999999</v>
@@ -36338,10 +36338,10 @@
         <v>2.231914894</v>
       </c>
       <c r="C16">
+        <v>0.208175625</v>
+      </c>
+      <c r="D16">
         <v>7</v>
-      </c>
-      <c r="D16">
-        <v>0.208175625</v>
       </c>
       <c r="E16">
         <v>2.1612635080000002</v>
@@ -36400,10 +36400,10 @@
         <v>2.953900709</v>
       </c>
       <c r="C17">
+        <v>0.21290688899999999</v>
+      </c>
+      <c r="D17">
         <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0.21290688899999999</v>
       </c>
       <c r="E17">
         <v>2.0781379879999999</v>
@@ -36462,10 +36462,10 @@
         <v>1.0656028369999999</v>
       </c>
       <c r="C18">
+        <v>0.208175625</v>
+      </c>
+      <c r="D18">
         <v>7</v>
-      </c>
-      <c r="D18">
-        <v>0.208175625</v>
       </c>
       <c r="E18">
         <v>2.0781379879999999</v>
@@ -36524,10 +36524,10 @@
         <v>1.229787234</v>
       </c>
       <c r="C19">
+        <v>0.208175625</v>
+      </c>
+      <c r="D19">
         <v>7</v>
-      </c>
-      <c r="D19">
-        <v>0.208175625</v>
       </c>
       <c r="E19">
         <v>2.1612635080000002</v>
@@ -36586,10 +36586,10 @@
         <v>0.86028368799999999</v>
       </c>
       <c r="C20">
+        <v>0.208175625</v>
+      </c>
+      <c r="D20">
         <v>7</v>
-      </c>
-      <c r="D20">
-        <v>0.208175625</v>
       </c>
       <c r="E20">
         <v>21.030756440000001</v>
@@ -36648,10 +36648,10 @@
         <v>0.67234042599999999</v>
       </c>
       <c r="C21">
+        <v>3.1652157459999999</v>
+      </c>
+      <c r="D21">
         <v>7</v>
-      </c>
-      <c r="D21">
-        <v>3.1652157459999999</v>
       </c>
       <c r="E21">
         <v>14.71321696</v>
@@ -36710,10 +36710,10 @@
         <v>0.60035461000000001</v>
       </c>
       <c r="C22">
+        <v>4.1682437549999998</v>
+      </c>
+      <c r="D22">
         <v>7</v>
-      </c>
-      <c r="D22">
-        <v>4.1682437549999998</v>
       </c>
       <c r="E22">
         <v>14.71321696</v>
@@ -36772,10 +36772,10 @@
         <v>0.91205673799999998</v>
       </c>
       <c r="C23">
+        <v>9.2827403480000008</v>
+      </c>
+      <c r="D23">
         <v>7</v>
-      </c>
-      <c r="D23">
-        <v>9.2827403480000008</v>
       </c>
       <c r="E23">
         <v>20.199501250000001</v>
@@ -36834,10 +36834,10 @@
         <v>0.56808510599999995</v>
       </c>
       <c r="C24">
+        <v>7.8680923539999998</v>
+      </c>
+      <c r="D24">
         <v>7</v>
-      </c>
-      <c r="D24">
-        <v>7.8680923539999998</v>
       </c>
       <c r="E24">
         <v>32.335827100000003</v>
@@ -36896,10 +36896,10 @@
         <v>0.21205673799999999</v>
       </c>
       <c r="C25">
+        <v>9.0509084029999993</v>
+      </c>
+      <c r="D25">
         <v>7</v>
-      </c>
-      <c r="D25">
-        <v>9.0509084029999993</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -36958,10 +36958,10 @@
         <v>0.47269503499999999</v>
       </c>
       <c r="C26">
+        <v>3.004352763</v>
+      </c>
+      <c r="D26">
         <v>7</v>
-      </c>
-      <c r="D26">
-        <v>3.004352763</v>
       </c>
       <c r="E26">
         <v>38.071487949999998</v>
@@ -37020,10 +37020,10 @@
         <v>0.408156028</v>
       </c>
       <c r="C27">
+        <v>1.5660484480000001</v>
+      </c>
+      <c r="D27">
         <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1.5660484480000001</v>
       </c>
       <c r="E27">
         <v>22.776392349999998</v>
@@ -37082,10 +37082,10 @@
         <v>0.44255319100000001</v>
       </c>
       <c r="C28">
+        <v>1.0030280090000001</v>
+      </c>
+      <c r="D28">
         <v>7</v>
-      </c>
-      <c r="D28">
-        <v>1.0030280090000001</v>
       </c>
       <c r="E28">
         <v>23.52452203</v>
@@ -37144,10 +37144,10 @@
         <v>0.34255319099999998</v>
       </c>
       <c r="C29">
+        <v>0.26495079500000002</v>
+      </c>
+      <c r="D29">
         <v>7</v>
-      </c>
-      <c r="D29">
-        <v>0.26495079500000002</v>
       </c>
       <c r="E29">
         <v>10.6400665</v>
@@ -37206,10 +37206,10 @@
         <v>0.44574468099999998</v>
       </c>
       <c r="C30">
+        <v>0.123012869</v>
+      </c>
+      <c r="D30">
         <v>7</v>
-      </c>
-      <c r="D30">
-        <v>0.123012869</v>
       </c>
       <c r="E30">
         <v>0.831255195</v>
@@ -37268,10 +37268,10 @@
         <v>0.66595744700000004</v>
       </c>
       <c r="C31">
+        <v>0.24129447400000001</v>
+      </c>
+      <c r="D31">
         <v>7</v>
-      </c>
-      <c r="D31">
-        <v>0.24129447400000001</v>
       </c>
       <c r="E31">
         <v>1.7456359100000001</v>
@@ -37330,10 +37330,10 @@
         <v>0.99078014199999997</v>
       </c>
       <c r="C32">
+        <v>0.13720666200000001</v>
+      </c>
+      <c r="D32">
         <v>7</v>
-      </c>
-      <c r="D32">
-        <v>0.13720666200000001</v>
       </c>
       <c r="E32">
         <v>1.579384871</v>
@@ -37392,10 +37392,10 @@
         <v>0.83191489399999996</v>
       </c>
       <c r="C33">
+        <v>1.8925056999999999E-2</v>
+      </c>
+      <c r="D33">
         <v>7</v>
-      </c>
-      <c r="D33">
-        <v>1.8925056999999999E-2</v>
       </c>
       <c r="E33">
         <v>0.16625103899999999</v>
@@ -37454,10 +37454,10 @@
         <v>0.857092199</v>
       </c>
       <c r="C34">
+        <v>2.8387585E-2</v>
+      </c>
+      <c r="D34">
         <v>7</v>
-      </c>
-      <c r="D34">
-        <v>2.8387585E-2</v>
       </c>
       <c r="E34">
         <v>0.16625103899999999</v>
@@ -37516,10 +37516,10 @@
         <v>1.1148936169999999</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>7</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -37578,10 +37578,10 @@
         <v>0.92872340399999997</v>
       </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>7</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>0.96843971600000001</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>7</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -37702,10 +37702,10 @@
         <v>2.0251773050000001</v>
       </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>7</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -37764,10 +37764,10 @@
         <v>1.7251773050000001</v>
       </c>
       <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>7</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -37826,10 +37826,10 @@
         <v>2.1893617019999998</v>
       </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>7</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -37888,10 +37888,10 @@
         <v>2.4531914889999999</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>7</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>1.337234043</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>7</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -38012,10 +38012,10 @@
         <v>1.1794326239999999</v>
       </c>
       <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>7</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -38074,10 +38074,10 @@
         <v>1.2049645389999999</v>
       </c>
       <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>7</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -38136,10 +38136,10 @@
         <v>1.1382978720000001</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>7</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -38198,10 +38198,10 @@
         <v>1.334751773</v>
       </c>
       <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>7</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -38260,10 +38260,10 @@
         <v>1.424468085</v>
       </c>
       <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>7</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -38322,10 +38322,10 @@
         <v>1.433687943</v>
       </c>
       <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>7</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -38384,10 +38384,10 @@
         <v>1.60141844</v>
       </c>
       <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
         <v>7</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -38446,10 +38446,10 @@
         <v>1.4716312060000001</v>
       </c>
       <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
         <v>7</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -38508,10 +38508,10 @@
         <v>1.2726950349999999</v>
       </c>
       <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>7</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -38570,10 +38570,10 @@
         <v>1.3648936169999999</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>7</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -38632,10 +38632,10 @@
         <v>1.668439716</v>
       </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
         <v>7</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -38694,10 +38694,10 @@
         <v>1.3131205669999999</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>7</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -38756,10 +38756,10 @@
         <v>1.2950354610000001</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>7</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -38818,10 +38818,10 @@
         <v>1.380141844</v>
       </c>
       <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
         <v>7</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -38880,10 +38880,10 @@
         <v>1.2432624109999999</v>
       </c>
       <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>7</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -38942,10 +38942,10 @@
         <v>1.2797872340000001</v>
       </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>7</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -39004,10 +39004,10 @@
         <v>1.2684397160000001</v>
       </c>
       <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>7</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -39066,10 +39066,10 @@
         <v>1.607092199</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>7</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -39128,10 +39128,10 @@
         <v>1.6790780139999999</v>
       </c>
       <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
         <v>7</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -39190,10 +39190,10 @@
         <v>1.8595744679999999</v>
       </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>7</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -39252,10 +39252,10 @@
         <v>1.459929078</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>7</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -39314,10 +39314,10 @@
         <v>1.24751773</v>
       </c>
       <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>7</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -39376,10 +39376,10 @@
         <v>1.7659574469999999</v>
       </c>
       <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
         <v>7</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -39438,10 +39438,10 @@
         <v>1.6386524819999999</v>
       </c>
       <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>7</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -39500,10 +39500,10 @@
         <v>1.4812056739999999</v>
       </c>
       <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>7</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -39562,10 +39562,10 @@
         <v>1.5627659570000001</v>
       </c>
       <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>7</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -39624,10 +39624,10 @@
         <v>1.3666666670000001</v>
       </c>
       <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>7</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -39686,10 +39686,10 @@
         <v>1.4308510640000001</v>
       </c>
       <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>7</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -39748,10 +39748,10 @@
         <v>1.581560284</v>
       </c>
       <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>7</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -39810,10 +39810,10 @@
         <v>1.968794326</v>
       </c>
       <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
         <v>7</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -39872,10 +39872,10 @@
         <v>2.6719858159999998</v>
       </c>
       <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>7</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -39934,10 +39934,10 @@
         <v>3.2741134750000001</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -39996,10 +39996,10 @@
         <v>1.997163121</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -40058,10 +40058,10 @@
         <v>1.9716312060000001</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -40120,10 +40120,10 @@
         <v>1.95035461</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -40182,10 +40182,10 @@
         <v>1.758510638</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -40244,10 +40244,10 @@
         <v>1.643262411</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -40306,10 +40306,10 @@
         <v>1.5599290779999999</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -40368,10 +40368,10 @@
         <v>1.555319149</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -40430,10 +40430,10 @@
         <v>1.5046099289999999</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -40492,10 +40492,10 @@
         <v>1.4960992909999999</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -40554,10 +40554,10 @@
         <v>1.491489362</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -40616,10 +40616,10 @@
         <v>1.4719858159999999</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -40678,10 +40678,10 @@
         <v>1.4578014180000001</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -40740,10 +40740,10 @@
         <v>1.39858156</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D87">
-        <v>4.7312639999999998E-3</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -40802,10 +40802,10 @@
         <v>1.3294326240000001</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0.113550341</v>
       </c>
       <c r="D88">
-        <v>0.113550341</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>1.579384871</v>
@@ -40864,10 +40864,10 @@
         <v>1.282624113</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.123012869</v>
       </c>
       <c r="D89">
-        <v>0.123012869</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0.831255195</v>
@@ -40926,10 +40926,10 @@
         <v>0.92482269500000003</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3.7850113999999997E-2</v>
       </c>
       <c r="D90">
-        <v>3.7850113999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>2.9093931839999998</v>
@@ -40988,10 +40988,10 @@
         <v>0.90354609900000005</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2.8387585E-2</v>
       </c>
       <c r="D91">
-        <v>2.8387585E-2</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1.0806317540000001</v>
@@ -41050,10 +41050,10 @@
         <v>0.88900709200000005</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.29333838000000001</v>
       </c>
       <c r="D92">
-        <v>0.29333838000000001</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1.7456359100000001</v>
@@ -41112,10 +41112,10 @@
         <v>0.88900709200000005</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.12774413300000001</v>
       </c>
       <c r="D93">
-        <v>0.12774413300000001</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>15.71072319</v>
@@ -41174,10 +41174,10 @@
         <v>0.88085106400000002</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>1.5518546559999999</v>
       </c>
       <c r="D94">
-        <v>1.5518546559999999</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>16.12635079</v>
@@ -41236,10 +41236,10 @@
         <v>0.87446808499999995</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>1.864118092</v>
       </c>
       <c r="D95">
-        <v>1.864118092</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>16.12635079</v>
@@ -41298,10 +41298,10 @@
         <v>0.85212765999999995</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2.5217638149999999</v>
       </c>
       <c r="D96">
-        <v>2.5217638149999999</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>26.018287610000002</v>
@@ -41360,10 +41360,10 @@
         <v>0.76418439699999996</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2.0864875089999999</v>
       </c>
       <c r="D97">
-        <v>2.0864875089999999</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>36.159601000000002</v>
@@ -41422,10 +41422,10 @@
         <v>0.71347517699999996</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2.5880015140000001</v>
       </c>
       <c r="D98">
-        <v>2.5880015140000001</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>31.83707398</v>
@@ -41484,10 +41484,10 @@
         <v>1.0297872340000001</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.84216502599999998</v>
       </c>
       <c r="D99">
-        <v>0.84216502599999998</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>12.302576889999999</v>
@@ -41546,10 +41546,10 @@
         <v>1.0283687939999999</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>1.0172218019999999</v>
       </c>
       <c r="D100">
-        <v>1.0172218019999999</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>11.63757273</v>
@@ -41608,10 +41608,10 @@
         <v>1.026241135</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>1.192278577</v>
       </c>
       <c r="D101">
-        <v>1.192278577</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>13.050706569999999</v>
@@ -41670,10 +41670,10 @@
         <v>1.023049645</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.55355791099999996</v>
       </c>
       <c r="D102">
-        <v>0.55355791099999996</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>7.3150457189999996</v>
@@ -41732,10 +41732,10 @@
         <v>1.0138297869999999</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.26968205899999997</v>
       </c>
       <c r="D103">
-        <v>0.26968205899999997</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>3.3250207810000001</v>
@@ -41794,10 +41794,10 @@
         <v>1.00248227</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0.25075700200000001</v>
       </c>
       <c r="D104">
-        <v>0.25075700200000001</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>2.7431421450000002</v>
@@ -41856,10 +41856,10 @@
         <v>0.98156028399999995</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>0.26968205899999997</v>
       </c>
       <c r="D105">
-        <v>0.26968205899999997</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>2.4937655859999999</v>
@@ -41918,10 +41918,10 @@
         <v>0.96950354599999999</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>5.2043906000000001E-2</v>
       </c>
       <c r="D106">
-        <v>5.2043906000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0.58187863699999998</v>
@@ -41980,10 +41980,10 @@
         <v>0.97375886499999997</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>3.3118848999999999E-2</v>
       </c>
       <c r="D107">
-        <v>3.3118848999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0.33250207799999998</v>
@@ -42042,10 +42042,10 @@
         <v>1.0156028370000001</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2.8387585E-2</v>
       </c>
       <c r="D108">
-        <v>2.8387585E-2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0.249376559</v>
@@ -42104,10 +42104,10 @@
         <v>1.04964539</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D109">
-        <v>4.7312639999999998E-3</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -42166,10 +42166,10 @@
         <v>1.29751773</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -42228,10 +42228,10 @@
         <v>0.93120567399999998</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -42290,10 +42290,10 @@
         <v>1.045744681</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -42352,10 +42352,10 @@
         <v>1.2606382979999999</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -42414,10 +42414,10 @@
         <v>1.3960992910000001</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -42476,10 +42476,10 @@
         <v>1.7106382979999999</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -42538,10 +42538,10 @@
         <v>1.747163121</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -42600,10 +42600,10 @@
         <v>1.8010638299999999</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -42662,10 +42662,10 @@
         <v>1.8244680849999999</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -42724,10 +42724,10 @@
         <v>2.2453900710000001</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -42786,10 +42786,10 @@
         <v>2.558156028</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -42848,10 +42848,10 @@
         <v>2.7858156030000001</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -42910,10 +42910,10 @@
         <v>3.0340425529999999</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -42972,10 +42972,10 @@
         <v>2.3390070920000001</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -43034,10 +43034,10 @@
         <v>2.5312056740000002</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -43096,10 +43096,10 @@
         <v>2.6067375890000002</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -43158,10 +43158,10 @@
         <v>2.6407801420000001</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -43220,10 +43220,10 @@
         <v>2.8390070920000001</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -43282,10 +43282,10 @@
         <v>3.0226950349999999</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -43344,10 +43344,10 @@
         <v>2.9797872339999998</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -43406,10 +43406,10 @@
         <v>3.1560283689999999</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -43468,10 +43468,10 @@
         <v>3.168794326</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -43530,10 +43530,10 @@
         <v>3.1851063829999999</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -43592,10 +43592,10 @@
         <v>3.2063829789999998</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -43654,10 +43654,10 @@
         <v>3.4308510640000001</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -43716,10 +43716,10 @@
         <v>27.410992910000001</v>
       </c>
       <c r="C135">
+        <v>0.14666919</v>
+      </c>
+      <c r="D135">
         <v>5</v>
-      </c>
-      <c r="D135">
-        <v>0.14666919</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -43778,10 +43778,10 @@
         <v>24.967021280000001</v>
       </c>
       <c r="C136">
+        <v>0.18925056800000001</v>
+      </c>
+      <c r="D136">
         <v>5</v>
-      </c>
-      <c r="D136">
-        <v>0.18925056800000001</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -43840,10 +43840,10 @@
         <v>23.889716310000001</v>
       </c>
       <c r="C137">
+        <v>2.507570023</v>
+      </c>
+      <c r="D137">
         <v>5</v>
-      </c>
-      <c r="D137">
-        <v>2.507570023</v>
       </c>
       <c r="E137">
         <v>1.0806317540000001</v>
@@ -43902,10 +43902,10 @@
         <v>8.7528368790000002</v>
       </c>
       <c r="C138">
+        <v>5.0104087809999998</v>
+      </c>
+      <c r="D138">
         <v>5</v>
-      </c>
-      <c r="D138">
-        <v>5.0104087809999998</v>
       </c>
       <c r="E138">
         <v>11.97007481</v>
@@ -43964,10 +43964,10 @@
         <v>7.575531915</v>
       </c>
       <c r="C139">
+        <v>0.70968962899999999</v>
+      </c>
+      <c r="D139">
         <v>5</v>
-      </c>
-      <c r="D139">
-        <v>0.70968962899999999</v>
       </c>
       <c r="E139">
         <v>10.05818786</v>
@@ -44026,10 +44026,10 @@
         <v>12.858865249999999</v>
       </c>
       <c r="C140">
+        <v>7.5700226999999995E-2</v>
+      </c>
+      <c r="D140">
         <v>5</v>
-      </c>
-      <c r="D140">
-        <v>7.5700226999999995E-2</v>
       </c>
       <c r="E140">
         <v>1.6625103910000001</v>
@@ -44088,10 +44088,10 @@
         <v>22.904609929999999</v>
       </c>
       <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
         <v>5</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -44150,10 +44150,10 @@
         <v>29.164539009999999</v>
       </c>
       <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
         <v>5</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -44212,10 +44212,10 @@
         <v>26.218085110000001</v>
       </c>
       <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
         <v>5</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -44274,10 +44274,10 @@
         <v>37.80496454</v>
       </c>
       <c r="C144">
+        <v>0.108819076</v>
+      </c>
+      <c r="D144">
         <v>9</v>
-      </c>
-      <c r="D144">
-        <v>0.108819076</v>
       </c>
       <c r="E144">
         <v>0.66500415599999996</v>
@@ -44336,10 +44336,10 @@
         <v>26.325531909999999</v>
       </c>
       <c r="C145">
+        <v>1.518735806</v>
+      </c>
+      <c r="D145">
         <v>9</v>
-      </c>
-      <c r="D145">
-        <v>1.518735806</v>
       </c>
       <c r="E145">
         <v>1.995012469</v>
@@ -44398,10 +44398,10 @@
         <v>19.269858159999998</v>
       </c>
       <c r="C146">
+        <v>3.8133989399999999</v>
+      </c>
+      <c r="D146">
         <v>9</v>
-      </c>
-      <c r="D146">
-        <v>3.8133989399999999</v>
       </c>
       <c r="E146">
         <v>2.826267664</v>
@@ -44460,10 +44460,10 @@
         <v>15.506028369999999</v>
       </c>
       <c r="C147">
+        <v>12.55677517</v>
+      </c>
+      <c r="D147">
         <v>9</v>
-      </c>
-      <c r="D147">
-        <v>12.55677517</v>
       </c>
       <c r="E147">
         <v>10.39068994</v>
@@ -44522,10 +44522,10 @@
         <v>4.1705673760000002</v>
       </c>
       <c r="C148">
+        <v>8.8380015140000001</v>
+      </c>
+      <c r="D148">
         <v>9</v>
-      </c>
-      <c r="D148">
-        <v>8.8380015140000001</v>
       </c>
       <c r="E148">
         <v>14.380714879999999</v>
@@ -44584,10 +44584,10 @@
         <v>6.2687943260000001</v>
       </c>
       <c r="C149">
+        <v>2.043906132</v>
+      </c>
+      <c r="D149">
         <v>9</v>
-      </c>
-      <c r="D149">
-        <v>2.043906132</v>
       </c>
       <c r="E149">
         <v>1.330008313</v>
@@ -44646,10 +44646,10 @@
         <v>6.4258865250000001</v>
       </c>
       <c r="C150">
+        <v>0.16086298299999999</v>
+      </c>
+      <c r="D150">
         <v>9</v>
-      </c>
-      <c r="D150">
-        <v>0.16086298299999999</v>
       </c>
       <c r="E150">
         <v>1.0806317540000001</v>
@@ -44708,10 +44708,10 @@
         <v>7.610283688</v>
       </c>
       <c r="C151">
+        <v>9.9356548000000003E-2</v>
+      </c>
+      <c r="D151">
         <v>9</v>
-      </c>
-      <c r="D151">
-        <v>9.9356548000000003E-2</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -44770,10 +44770,10 @@
         <v>20.082269499999999</v>
       </c>
       <c r="C152">
+        <v>1.8925056999999999E-2</v>
+      </c>
+      <c r="D152">
         <v>9</v>
-      </c>
-      <c r="D152">
-        <v>1.8925056999999999E-2</v>
       </c>
       <c r="E152">
         <v>8.3125519999999994E-2</v>
@@ -44832,10 +44832,10 @@
         <v>22.19503546</v>
       </c>
       <c r="C153">
+        <v>4.7312639999999998E-3</v>
+      </c>
+      <c r="D153">
         <v>9</v>
-      </c>
-      <c r="D153">
-        <v>4.7312639999999998E-3</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -44894,10 +44894,10 @@
         <v>31.916312059999999</v>
       </c>
       <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
         <v>9</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -44956,10 +44956,10 @@
         <v>40.713829789999998</v>
       </c>
       <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
         <v>9</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -45018,10 +45018,10 @@
         <v>4.0425531909999997</v>
       </c>
       <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
         <v>4</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -45080,10 +45080,10 @@
         <v>3.9982269499999998</v>
       </c>
       <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
         <v>4</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -45142,10 +45142,10 @@
         <v>4.1294326239999997</v>
       </c>
       <c r="C158">
+        <v>5.677517E-2</v>
+      </c>
+      <c r="D158">
         <v>4</v>
-      </c>
-      <c r="D158">
-        <v>5.677517E-2</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -45204,10 +45204,10 @@
         <v>3.8847517730000001</v>
       </c>
       <c r="C159">
+        <v>0.17978803900000001</v>
+      </c>
+      <c r="D159">
         <v>4</v>
-      </c>
-      <c r="D159">
-        <v>0.17978803900000001</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -45266,10 +45266,10 @@
         <v>3.0372340430000002</v>
       </c>
       <c r="C160">
+        <v>0.70022710099999996</v>
+      </c>
+      <c r="D160">
         <v>4</v>
-      </c>
-      <c r="D160">
-        <v>0.70022710099999996</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -45328,10 +45328,10 @@
         <v>2.8776595739999999</v>
       </c>
       <c r="C161">
+        <v>8.114118092</v>
+      </c>
+      <c r="D161">
         <v>4</v>
-      </c>
-      <c r="D161">
-        <v>8.114118092</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -45390,10 +45390,10 @@
         <v>3.336879433</v>
       </c>
       <c r="C162">
+        <v>72.553936410000006</v>
+      </c>
+      <c r="D162">
         <v>4</v>
-      </c>
-      <c r="D162">
-        <v>72.553936410000006</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -45452,10 +45452,10 @@
         <v>3.4379432620000001</v>
       </c>
       <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
         <v>4</v>
-      </c>
-      <c r="D163">
-        <v>100</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -45514,10 +45514,10 @@
         <v>3.6808510640000001</v>
       </c>
       <c r="C164">
+        <v>35.910295230000003</v>
+      </c>
+      <c r="D164">
         <v>4</v>
-      </c>
-      <c r="D164">
-        <v>35.910295230000003</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -45576,10 +45576,10 @@
         <v>4.19858156</v>
       </c>
       <c r="C165">
+        <v>4.5325510979999999</v>
+      </c>
+      <c r="D165">
         <v>4</v>
-      </c>
-      <c r="D165">
-        <v>4.5325510979999999</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -45638,10 +45638,10 @@
         <v>4.1223404260000001</v>
       </c>
       <c r="C166">
+        <v>1.267978804</v>
+      </c>
+      <c r="D166">
         <v>4</v>
-      </c>
-      <c r="D166">
-        <v>1.267978804</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -45700,10 +45700,10 @@
         <v>5.8262411350000001</v>
       </c>
       <c r="C167">
+        <v>0.48258894800000002</v>
+      </c>
+      <c r="D167">
         <v>4</v>
-      </c>
-      <c r="D167">
-        <v>0.48258894800000002</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -45762,10 +45762,10 @@
         <v>3.65070922</v>
       </c>
       <c r="C168">
+        <v>0.52990159000000003</v>
+      </c>
+      <c r="D168">
         <v>4</v>
-      </c>
-      <c r="D168">
-        <v>0.52990159000000003</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -45824,10 +45824,10 @@
         <v>4.6382978719999999</v>
       </c>
       <c r="C169">
+        <v>0.175056775</v>
+      </c>
+      <c r="D169">
         <v>4</v>
-      </c>
-      <c r="D169">
-        <v>0.175056775</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -45886,10 +45886,10 @@
         <v>4.3138297870000004</v>
       </c>
       <c r="C170">
+        <v>3.3118848999999999E-2</v>
+      </c>
+      <c r="D170">
         <v>4</v>
-      </c>
-      <c r="D170">
-        <v>3.3118848999999999E-2</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -45948,10 +45948,10 @@
         <v>3.4734042550000002</v>
       </c>
       <c r="C171">
+        <v>1.8925056999999999E-2</v>
+      </c>
+      <c r="D171">
         <v>4</v>
-      </c>
-      <c r="D171">
-        <v>1.8925056999999999E-2</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -46010,10 +46010,10 @@
         <v>2.941489362</v>
       </c>
       <c r="C172">
+        <v>4.7312639999999998E-3</v>
+      </c>
+      <c r="D172">
         <v>4</v>
-      </c>
-      <c r="D172">
-        <v>4.7312639999999998E-3</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -46072,10 +46072,10 @@
         <v>3.2234042550000002</v>
       </c>
       <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
         <v>4</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -46134,10 +46134,10 @@
         <v>3.9432624110000001</v>
       </c>
       <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
         <v>4</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -46196,10 +46196,10 @@
         <v>3.8102836880000002</v>
       </c>
       <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
         <v>4</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -46258,10 +46258,10 @@
         <v>4.0638297870000004</v>
       </c>
       <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
         <v>4</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -46320,10 +46320,10 @@
         <v>4.1861702129999996</v>
       </c>
       <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
         <v>4</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -46382,10 +46382,10 @@
         <v>4.3794326239999997</v>
       </c>
       <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
         <v>4</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -46444,10 +46444,10 @@
         <v>6.040780142</v>
       </c>
       <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
         <v>4</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -46506,10 +46506,10 @@
         <v>25.140070919999999</v>
       </c>
       <c r="C180">
+        <v>3.7850113999999997E-2</v>
+      </c>
+      <c r="D180">
         <v>6</v>
-      </c>
-      <c r="D180">
-        <v>3.7850113999999997E-2</v>
       </c>
       <c r="E180">
         <v>0.249376559</v>
@@ -46568,10 +46568,10 @@
         <v>28.95744681</v>
       </c>
       <c r="C181">
+        <v>0.90367146099999995</v>
+      </c>
+      <c r="D181">
         <v>6</v>
-      </c>
-      <c r="D181">
-        <v>0.90367146099999995</v>
       </c>
       <c r="E181">
         <v>5.2369077309999996</v>
@@ -46630,10 +46630,10 @@
         <v>27.964539009999999</v>
       </c>
       <c r="C182">
+        <v>3.5389856169999998</v>
+      </c>
+      <c r="D182">
         <v>6</v>
-      </c>
-      <c r="D182">
-        <v>3.5389856169999998</v>
       </c>
       <c r="E182">
         <v>20.532003329999998</v>
@@ -46692,10 +46692,10 @@
         <v>32.375886520000002</v>
       </c>
       <c r="C183">
+        <v>3.2219909160000002</v>
+      </c>
+      <c r="D183">
         <v>6</v>
-      </c>
-      <c r="D183">
-        <v>3.2219909160000002</v>
       </c>
       <c r="E183">
         <v>21.6957606</v>
@@ -46754,10 +46754,10 @@
         <v>31.904255320000001</v>
       </c>
       <c r="C184">
+        <v>1.215934898</v>
+      </c>
+      <c r="D184">
         <v>6</v>
-      </c>
-      <c r="D184">
-        <v>1.215934898</v>
       </c>
       <c r="E184">
         <v>7.0656691599999997</v>
@@ -46816,10 +46816,10 @@
         <v>31.992907800000001</v>
       </c>
       <c r="C185">
+        <v>1.201741105</v>
+      </c>
+      <c r="D185">
         <v>6</v>
-      </c>
-      <c r="D185">
-        <v>1.201741105</v>
       </c>
       <c r="E185">
         <v>6.9825436410000004</v>
@@ -46878,10 +46878,10 @@
         <v>28.562056739999999</v>
       </c>
       <c r="C186">
+        <v>0.67183951600000003</v>
+      </c>
+      <c r="D186">
         <v>6</v>
-      </c>
-      <c r="D186">
-        <v>0.67183951600000003</v>
       </c>
       <c r="E186">
         <v>3.9068994180000001</v>
@@ -46940,10 +46940,10 @@
         <v>27.187943260000001</v>
       </c>
       <c r="C187">
+        <v>0.77592732799999997</v>
+      </c>
+      <c r="D187">
         <v>6</v>
-      </c>
-      <c r="D187">
-        <v>0.77592732799999997</v>
       </c>
       <c r="E187">
         <v>4.488778055</v>
@@ -47002,10 +47002,10 @@
         <v>100</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -47064,10 +47064,10 @@
         <v>100</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -47126,10 +47126,10 @@
         <v>100</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -47188,10 +47188,10 @@
         <v>100</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -47250,10 +47250,10 @@
         <v>100</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -47312,10 +47312,10 @@
         <v>100</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -47374,10 +47374,10 @@
         <v>100</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D194">
-        <v>4.7312639999999998E-3</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -47436,10 +47436,10 @@
         <v>100</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -47498,10 +47498,10 @@
         <v>62.056737589999997</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1.8925056999999999E-2</v>
       </c>
       <c r="D196">
-        <v>1.8925056999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -47560,10 +47560,10 @@
         <v>43.617021280000003</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D197">
-        <v>4.7312639999999998E-3</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -47622,10 +47622,10 @@
         <v>17.73049645</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>9.4625279999999996E-3</v>
       </c>
       <c r="D198">
-        <v>9.4625279999999996E-3</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -47684,10 +47684,10 @@
         <v>10.638297870000001</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -47746,10 +47746,10 @@
         <v>3.546099291</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1.8925056999999999E-2</v>
       </c>
       <c r="D200">
-        <v>1.8925056999999999E-2</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -47808,10 +47808,10 @@
         <v>1.241134752</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>3.7850113999999997E-2</v>
       </c>
       <c r="D201">
-        <v>3.7850113999999997E-2</v>
+        <v>2</v>
       </c>
       <c r="E201">
         <v>0.16625103899999999</v>
@@ -47870,10 +47870,10 @@
         <v>0.70921985799999998</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>3.7850113999999997E-2</v>
       </c>
       <c r="D202">
-        <v>3.7850113999999997E-2</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>0.249376559</v>
@@ -47932,10 +47932,10 @@
         <v>0.53191489400000003</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>5.2043906000000001E-2</v>
       </c>
       <c r="D203">
-        <v>5.2043906000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>0.41562759799999999</v>
@@ -47994,10 +47994,10 @@
         <v>0.35460992899999999</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>6.1506434999999998E-2</v>
       </c>
       <c r="D204">
-        <v>6.1506434999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="E204">
         <v>0.249376559</v>
@@ -48056,10 +48056,10 @@
         <v>0.81560283700000002</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>0.23656321</v>
       </c>
       <c r="D205">
-        <v>0.23656321</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>1.1637572730000001</v>
@@ -48118,10 +48118,10 @@
         <v>0.42553191499999998</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>0.23656321</v>
       </c>
       <c r="D206">
-        <v>0.23656321</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>0.99750623400000005</v>
@@ -48180,10 +48180,10 @@
         <v>1.1148936169999999</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>0.25075700200000001</v>
       </c>
       <c r="D207">
-        <v>0.25075700200000001</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>1.0806317540000001</v>
@@ -48242,10 +48242,10 @@
         <v>0.76063829800000005</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>0.23656321</v>
       </c>
       <c r="D208">
-        <v>0.23656321</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>0.99750623400000005</v>
@@ -48304,10 +48304,10 @@
         <v>0.47730496500000003</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>0.36903860700000002</v>
       </c>
       <c r="D209">
-        <v>0.36903860700000002</v>
+        <v>2</v>
       </c>
       <c r="E209">
         <v>1.330008313</v>
@@ -48366,10 +48366,10 @@
         <v>0.43368794300000002</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>0.40215745600000002</v>
       </c>
       <c r="D210">
-        <v>0.40215745600000002</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>1.413133832</v>
@@ -48428,10 +48428,10 @@
         <v>0.47304964500000002</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>0.392694928</v>
       </c>
       <c r="D211">
-        <v>0.392694928</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>1.1637572730000001</v>
@@ -48490,10 +48490,10 @@
         <v>0.76028368800000001</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>0.29806964400000002</v>
       </c>
       <c r="D212">
-        <v>0.29806964400000002</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>1.579384871</v>
@@ -48552,10 +48552,10 @@
         <v>1.139716312</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>0.35484481499999998</v>
       </c>
       <c r="D213">
-        <v>0.35484481499999998</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>0.99750623400000005</v>
@@ -48614,10 +48614,10 @@
         <v>0.35460992899999999</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0.27441332299999999</v>
       </c>
       <c r="D214">
-        <v>0.27441332299999999</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>1.2468827929999999</v>
@@ -48676,10 +48676,10 @@
         <v>0.31914893599999999</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>3.321347464</v>
       </c>
       <c r="D215">
-        <v>3.321347464</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>5.4031587700000001</v>
@@ -48738,10 +48738,10 @@
         <v>0.25921985800000003</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>8.0431490999999994E-2</v>
       </c>
       <c r="D216">
-        <v>8.0431490999999994E-2</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>2.826267664</v>
@@ -48800,10 +48800,10 @@
         <v>0.217730496</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>9.4625284000000004E-2</v>
       </c>
       <c r="D217">
-        <v>9.4625284000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>1.7456359100000001</v>
@@ -48862,10 +48862,10 @@
         <v>1.493971631</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>7.0968962999999996E-2</v>
       </c>
       <c r="D218">
-        <v>7.0968962999999996E-2</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>0.831255195</v>
@@ -48924,10 +48924,10 @@
         <v>2.7868794330000002</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3.7850113999999997E-2</v>
       </c>
       <c r="D219">
-        <v>3.7850113999999997E-2</v>
+        <v>2</v>
       </c>
       <c r="E219">
         <v>0.41562759799999999</v>
@@ -48986,10 +48986,10 @@
         <v>3.5361702130000001</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>6.1506434999999998E-2</v>
       </c>
       <c r="D220">
-        <v>6.1506434999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>0.249376559</v>
@@ -49048,10 +49048,10 @@
         <v>3.628723404</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>4.2581378000000003E-2</v>
       </c>
       <c r="D221">
-        <v>4.2581378000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="E221">
         <v>0.16625103899999999</v>
@@ -49110,10 +49110,10 @@
         <v>5.4056737589999999</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>4.2581378000000003E-2</v>
       </c>
       <c r="D222">
-        <v>4.2581378000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>0.33250207799999998</v>
@@ -49172,10 +49172,10 @@
         <v>7.1432624110000003</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>2.3656321000000001E-2</v>
       </c>
       <c r="D223">
-        <v>2.3656321000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>8.3125519999999994E-2</v>
@@ -49234,10 +49234,10 @@
         <v>5.2329787230000004</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>2.8387585E-2</v>
       </c>
       <c r="D224">
-        <v>2.8387585E-2</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>8.3125519999999994E-2</v>
@@ -49296,10 +49296,10 @@
         <v>4.7751773049999997</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>2.3656321000000001E-2</v>
       </c>
       <c r="D225">
-        <v>2.3656321000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="E225">
         <v>0.16625103899999999</v>
@@ -49358,10 +49358,10 @@
         <v>6.1886524820000002</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>2.3656321000000001E-2</v>
       </c>
       <c r="D226">
-        <v>2.3656321000000001E-2</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -49420,10 +49420,10 @@
         <v>5.4865248229999999</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>4.2581378000000003E-2</v>
       </c>
       <c r="D227">
-        <v>4.2581378000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -49482,10 +49482,10 @@
         <v>8.3173758870000007</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D228">
-        <v>4.7312639999999998E-3</v>
+        <v>2</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -49544,10 +49544,10 @@
         <v>8.7117021280000007</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>4.7312639999999998E-3</v>
       </c>
       <c r="D229">
-        <v>4.7312639999999998E-3</v>
+        <v>2</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -49606,10 +49606,10 @@
         <v>8.657801418</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>9.4625279999999996E-3</v>
       </c>
       <c r="D230">
-        <v>9.4625279999999996E-3</v>
+        <v>2</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -49668,10 +49668,10 @@
         <v>30.373049649999999</v>
       </c>
       <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
         <v>3</v>
-      </c>
-      <c r="D231">
-        <v>0</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -49730,10 +49730,10 @@
         <v>34.175886519999999</v>
       </c>
       <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
         <v>3</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -49792,10 +49792,10 @@
         <v>31.501418439999998</v>
       </c>
       <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
         <v>3</v>
-      </c>
-      <c r="D233">
-        <v>0</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -49854,10 +49854,10 @@
         <v>28.848936170000002</v>
       </c>
       <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
         <v>3</v>
-      </c>
-      <c r="D234">
-        <v>0</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -49916,10 +49916,10 @@
         <v>27.470567379999999</v>
       </c>
       <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
         <v>3</v>
-      </c>
-      <c r="D235">
-        <v>0</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -49978,10 +49978,10 @@
         <v>24.51170213</v>
       </c>
       <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
         <v>3</v>
-      </c>
-      <c r="D236">
-        <v>0</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -50040,10 +50040,10 @@
         <v>26.148936169999999</v>
       </c>
       <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="D237">
         <v>3</v>
-      </c>
-      <c r="D237">
-        <v>0</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -50102,10 +50102,10 @@
         <v>23.186524819999999</v>
       </c>
       <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238">
         <v>3</v>
-      </c>
-      <c r="D238">
-        <v>0</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -50164,10 +50164,10 @@
         <v>16.433687939999999</v>
       </c>
       <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="D239">
         <v>3</v>
-      </c>
-      <c r="D239">
-        <v>0</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -50226,10 +50226,10 @@
         <v>9.9191489359999991</v>
       </c>
       <c r="C240">
+        <v>2.3656321000000001E-2</v>
+      </c>
+      <c r="D240">
         <v>3</v>
-      </c>
-      <c r="D240">
-        <v>2.3656321000000001E-2</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -50288,10 +50288,10 @@
         <v>0.240425532</v>
       </c>
       <c r="C241">
+        <v>8.5162755000000007E-2</v>
+      </c>
+      <c r="D241">
         <v>3</v>
-      </c>
-      <c r="D241">
-        <v>8.5162755000000007E-2</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -50350,10 +50350,10 @@
         <v>0.43</v>
       </c>
       <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
         <v>3</v>
-      </c>
-      <c r="D242">
-        <v>0</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -50412,10 +50412,10 @@
         <v>0.62</v>
       </c>
       <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
         <v>3</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -50474,10 +50474,10 @@
         <v>0.9</v>
       </c>
       <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
         <v>3</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -50536,10 +50536,10 @@
         <v>0</v>
       </c>
       <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
         <v>3</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
       </c>
       <c r="E245">
         <v>0</v>
